--- a/Data/Odds/NFL/NFL_odds_2022-23.xlsx
+++ b/Data/Odds/NFL/NFL_odds_2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FBB485-5B40-4192-AC91-5354F8570245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF475DE-3B87-4076-9263-94D2C63B04DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{BC61BBA6-C598-4BD9-BDBF-FB5B8445D10B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -12903,38 +12903,1072 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A302" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B302" s="2">
+        <v>311</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E302" s="2">
+        <v>7</v>
+      </c>
+      <c r="F302" s="2">
+        <v>7</v>
+      </c>
+      <c r="G302" s="2">
+        <v>6</v>
+      </c>
+      <c r="H302" s="2">
+        <v>7</v>
+      </c>
+      <c r="I302" s="2">
+        <v>27</v>
+      </c>
+      <c r="J302" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K302" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="L302" s="2">
+        <v>155</v>
+      </c>
+      <c r="M302" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A303" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B303" s="2">
+        <v>312</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E303" s="2">
+        <v>6</v>
+      </c>
+      <c r="F303" s="2">
+        <v>0</v>
+      </c>
+      <c r="G303" s="2">
+        <v>11</v>
+      </c>
+      <c r="H303" s="2">
+        <v>0</v>
+      </c>
+      <c r="I303" s="2">
+        <v>17</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K303" s="2">
+        <v>3</v>
+      </c>
+      <c r="L303" s="2">
+        <v>-175</v>
+      </c>
+      <c r="M303" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A304" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B304" s="2">
+        <v>451</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E304" s="2">
+        <v>0</v>
+      </c>
+      <c r="F304" s="2">
+        <v>0</v>
+      </c>
+      <c r="G304" s="2">
+        <v>3</v>
+      </c>
+      <c r="H304" s="2">
+        <v>0</v>
+      </c>
+      <c r="I304" s="2">
+        <v>3</v>
+      </c>
+      <c r="J304" s="2">
+        <v>44</v>
+      </c>
+      <c r="K304" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="L304" s="2">
+        <v>500</v>
+      </c>
+      <c r="M304" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A305" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B305" s="2">
+        <v>452</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" s="2">
+        <v>0</v>
+      </c>
+      <c r="F305" s="2">
+        <v>3</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0</v>
+      </c>
+      <c r="H305" s="2">
+        <v>10</v>
+      </c>
+      <c r="I305" s="2">
+        <v>13</v>
+      </c>
+      <c r="J305" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K305" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L305" s="2">
+        <v>-700</v>
+      </c>
+      <c r="M305" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A306" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B306" s="2">
+        <v>455</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E306" s="2">
+        <v>0</v>
+      </c>
+      <c r="F306" s="2">
+        <v>3</v>
+      </c>
+      <c r="G306" s="2">
+        <v>0</v>
+      </c>
+      <c r="H306" s="2">
+        <v>14</v>
+      </c>
+      <c r="I306" s="2">
+        <v>17</v>
+      </c>
+      <c r="J306" s="2">
+        <v>10</v>
+      </c>
+      <c r="K306" s="2">
+        <v>7</v>
+      </c>
+      <c r="L306" s="2">
+        <v>-300</v>
+      </c>
+      <c r="M306" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A307" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B307" s="2">
+        <v>456</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" s="2">
+        <v>7</v>
+      </c>
+      <c r="F307" s="2">
+        <v>3</v>
+      </c>
+      <c r="G307" s="2">
+        <v>3</v>
+      </c>
+      <c r="H307" s="2">
+        <v>3</v>
+      </c>
+      <c r="I307" s="2">
+        <v>16</v>
+      </c>
+      <c r="J307" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K307" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="L307" s="2">
+        <v>250</v>
+      </c>
+      <c r="M307" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A308" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B308" s="2">
+        <v>457</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E308" s="2">
+        <v>7</v>
+      </c>
+      <c r="F308" s="2">
+        <v>13</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+      <c r="H308" s="2">
+        <v>3</v>
+      </c>
+      <c r="I308" s="2">
+        <v>23</v>
+      </c>
+      <c r="J308" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K308" s="2">
+        <v>3</v>
+      </c>
+      <c r="L308" s="2">
+        <v>-160</v>
+      </c>
+      <c r="M308" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A309" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B309" s="2">
+        <v>458</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E309" s="2">
+        <v>0</v>
+      </c>
+      <c r="F309" s="2">
+        <v>0</v>
+      </c>
+      <c r="G309" s="2">
+        <v>3</v>
+      </c>
+      <c r="H309" s="2">
+        <v>7</v>
+      </c>
+      <c r="I309" s="2">
+        <v>10</v>
+      </c>
+      <c r="J309" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="K309" s="2">
+        <v>41</v>
+      </c>
+      <c r="L309" s="2">
+        <v>140</v>
+      </c>
+      <c r="M309" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A310" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B310" s="2">
+        <v>459</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E310" s="2">
+        <v>0</v>
+      </c>
+      <c r="F310" s="2">
+        <v>3</v>
+      </c>
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
+      <c r="H310" s="2">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2">
+        <v>3</v>
+      </c>
+      <c r="J310" s="2">
+        <v>40</v>
+      </c>
+      <c r="K310" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="L310" s="2">
+        <v>155</v>
+      </c>
+      <c r="M310" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A311" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B311" s="2">
+        <v>460</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E311" s="2">
+        <v>0</v>
+      </c>
+      <c r="F311" s="2">
+        <v>3</v>
+      </c>
+      <c r="G311" s="2">
+        <v>0</v>
+      </c>
+      <c r="H311" s="2">
+        <v>7</v>
+      </c>
+      <c r="I311" s="2">
+        <v>10</v>
+      </c>
+      <c r="J311" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K311" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L311" s="2">
+        <v>-175</v>
+      </c>
+      <c r="M311" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A312" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B312" s="2">
+        <v>461</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" s="2">
+        <v>3</v>
+      </c>
+      <c r="F312" s="2">
+        <v>14</v>
+      </c>
+      <c r="G312" s="2">
+        <v>7</v>
+      </c>
+      <c r="H312" s="2">
+        <v>7</v>
+      </c>
+      <c r="I312" s="2">
+        <v>31</v>
+      </c>
+      <c r="J312" s="2">
+        <v>45</v>
+      </c>
+      <c r="K312" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L312" s="2">
+        <v>145</v>
+      </c>
+      <c r="M312" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A313" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B313" s="2">
+        <v>462</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E313" s="2">
+        <v>6</v>
+      </c>
+      <c r="F313" s="2">
+        <v>0</v>
+      </c>
+      <c r="G313" s="2">
+        <v>0</v>
+      </c>
+      <c r="H313" s="2">
+        <v>12</v>
+      </c>
+      <c r="I313" s="2">
+        <v>18</v>
+      </c>
+      <c r="J313" s="2">
+        <v>4</v>
+      </c>
+      <c r="K313" s="2">
+        <v>3</v>
+      </c>
+      <c r="L313" s="2">
+        <v>-165</v>
+      </c>
+      <c r="M313" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A314" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B314" s="2">
+        <v>463</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="2">
+        <v>7</v>
+      </c>
+      <c r="F314" s="2">
+        <v>7</v>
+      </c>
+      <c r="G314" s="2">
+        <v>0</v>
+      </c>
+      <c r="H314" s="2">
+        <v>6</v>
+      </c>
+      <c r="I314" s="2">
+        <v>20</v>
+      </c>
+      <c r="J314" s="2">
+        <v>1</v>
+      </c>
+      <c r="K314" s="2">
+        <v>39</v>
+      </c>
+      <c r="L314" s="2">
+        <v>115</v>
+      </c>
+      <c r="M314" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A315" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B315" s="2">
+        <v>464</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="2">
+        <v>3</v>
+      </c>
+      <c r="F315" s="2">
+        <v>7</v>
+      </c>
+      <c r="G315" s="2">
+        <v>14</v>
+      </c>
+      <c r="H315" s="2">
+        <v>3</v>
+      </c>
+      <c r="I315" s="2">
+        <v>27</v>
+      </c>
+      <c r="J315" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K315" s="2">
+        <v>1</v>
+      </c>
+      <c r="L315" s="2">
+        <v>-135</v>
+      </c>
+      <c r="M315" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A316" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B316" s="2">
+        <v>465</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="2">
+        <v>7</v>
+      </c>
+      <c r="F316" s="2">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+      <c r="H316" s="2">
+        <v>7</v>
+      </c>
+      <c r="I316" s="2">
+        <v>24</v>
+      </c>
+      <c r="J316" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="K316" s="2">
+        <v>48</v>
+      </c>
+      <c r="L316" s="2">
+        <v>115</v>
+      </c>
+      <c r="M316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A317" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B317" s="2">
+        <v>466</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E317" s="2">
+        <v>7</v>
+      </c>
+      <c r="F317" s="2">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2">
+        <v>7</v>
+      </c>
+      <c r="H317" s="2">
+        <v>3</v>
+      </c>
+      <c r="I317" s="2">
+        <v>27</v>
+      </c>
+      <c r="J317" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K317" s="2">
+        <v>1</v>
+      </c>
+      <c r="L317" s="2">
+        <v>-135</v>
+      </c>
+      <c r="M317" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A318" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B318" s="2">
+        <v>467</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E318" s="2">
+        <v>0</v>
+      </c>
+      <c r="F318" s="2">
+        <v>7</v>
+      </c>
+      <c r="G318" s="2">
+        <v>3</v>
+      </c>
+      <c r="H318" s="2">
+        <v>6</v>
+      </c>
+      <c r="I318" s="2">
+        <v>22</v>
+      </c>
+      <c r="J318" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K318" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="L318" s="2">
+        <v>130</v>
+      </c>
+      <c r="M318" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A319" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B319" s="2">
+        <v>468</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E319" s="2">
+        <v>7</v>
+      </c>
+      <c r="F319" s="2">
+        <v>3</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+      <c r="H319" s="2">
+        <v>6</v>
+      </c>
+      <c r="I319" s="2">
+        <v>16</v>
+      </c>
+      <c r="J319" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K319" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L319" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M319" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A320" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B320" s="2">
+        <v>469</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E320" s="2">
+        <v>6</v>
+      </c>
+      <c r="F320" s="2">
+        <v>7</v>
+      </c>
+      <c r="G320" s="2">
+        <v>3</v>
+      </c>
+      <c r="H320" s="2">
+        <v>14</v>
+      </c>
+      <c r="I320" s="2">
+        <v>30</v>
+      </c>
+      <c r="J320" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K320" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L320" s="2">
+        <v>-220</v>
+      </c>
+      <c r="M320" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A321" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B321" s="2">
+        <v>470</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E321" s="2">
+        <v>10</v>
+      </c>
+      <c r="F321" s="2">
+        <v>10</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+      <c r="H321" s="2">
+        <v>7</v>
+      </c>
+      <c r="I321" s="2">
+        <v>27</v>
+      </c>
+      <c r="J321" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="K321" s="2">
+        <v>53</v>
+      </c>
+      <c r="L321" s="2">
+        <v>190</v>
+      </c>
+      <c r="M321" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A322" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B322" s="2">
+        <v>471</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E322" s="2">
+        <v>10</v>
+      </c>
+      <c r="F322" s="2">
+        <v>13</v>
+      </c>
+      <c r="G322" s="2">
+        <v>14</v>
+      </c>
+      <c r="H322" s="2">
+        <v>3</v>
+      </c>
+      <c r="I322" s="2">
+        <v>40</v>
+      </c>
+      <c r="J322" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="K322" s="2">
+        <v>1</v>
+      </c>
+      <c r="L322" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M322" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A323" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B323" s="2">
+        <v>472</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E323" s="2">
+        <v>3</v>
+      </c>
+      <c r="F323" s="2">
+        <v>0</v>
+      </c>
+      <c r="G323" s="2">
+        <v>0</v>
+      </c>
+      <c r="H323" s="2">
+        <v>0</v>
+      </c>
+      <c r="I323" s="2">
+        <v>3</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K323" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="L323" s="2">
+        <v>120</v>
+      </c>
+      <c r="M323" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A324" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B324" s="2">
+        <v>473</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E324" s="2">
+        <v>10</v>
+      </c>
+      <c r="F324" s="2">
+        <v>7</v>
+      </c>
+      <c r="G324" s="2">
+        <v>10</v>
+      </c>
+      <c r="H324" s="2">
+        <v>10</v>
+      </c>
+      <c r="I324" s="2">
+        <v>37</v>
+      </c>
+      <c r="J324" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K324" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L324" s="2">
+        <v>-180</v>
+      </c>
+      <c r="M324" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A325" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B325" s="2">
+        <v>474</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E325" s="2">
+        <v>3</v>
+      </c>
+      <c r="F325" s="2">
+        <v>17</v>
+      </c>
+      <c r="G325" s="2">
+        <v>3</v>
+      </c>
+      <c r="H325" s="2">
+        <v>7</v>
+      </c>
+      <c r="I325" s="2">
+        <v>30</v>
+      </c>
+      <c r="J325" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K325" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="L325" s="2">
+        <v>160</v>
+      </c>
+      <c r="M325" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A326" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B326" s="2">
+        <v>477</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E326" s="2">
+        <v>7</v>
+      </c>
+      <c r="F326" s="2">
+        <v>3</v>
+      </c>
+      <c r="G326" s="2">
+        <v>0</v>
+      </c>
+      <c r="H326" s="2">
+        <v>13</v>
+      </c>
+      <c r="I326" s="2">
+        <v>23</v>
+      </c>
+      <c r="J326" s="2">
+        <v>48</v>
+      </c>
+      <c r="K326" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="L326" s="2">
+        <v>290</v>
+      </c>
+      <c r="M326" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A327" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B327" s="2">
+        <v>478</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" s="2">
+        <v>3</v>
+      </c>
+      <c r="F327" s="2">
+        <v>10</v>
+      </c>
+      <c r="G327" s="2">
+        <v>9</v>
+      </c>
+      <c r="H327" s="2">
+        <v>9</v>
+      </c>
+      <c r="I327" s="2">
+        <v>31</v>
+      </c>
+      <c r="J327" s="2">
+        <v>9</v>
+      </c>
+      <c r="K327" s="2">
+        <v>9</v>
+      </c>
+      <c r="L327" s="2">
+        <v>-350</v>
+      </c>
+      <c r="M327" s="2">
+        <v>4</v>
+      </c>
+    </row>
     <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Data/Odds/NFL/NFL_odds_2022-23.xlsx
+++ b/Data/Odds/NFL/NFL_odds_2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF475DE-3B87-4076-9263-94D2C63B04DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A14F97-BC2A-46DA-B04A-941F727B0904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{BC61BBA6-C598-4BD9-BDBF-FB5B8445D10B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,39 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>NY Giants</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>NY Jets</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>LA Chargers</t>
+  </si>
+  <si>
+    <t>LA Rams</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
   </si>
 </sst>
 </file>
@@ -13969,38 +14002,1318 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A328" s="2">
+        <v>1121</v>
+      </c>
+      <c r="B328" s="2">
+        <v>475</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E328" s="2">
+        <v>0</v>
+      </c>
+      <c r="F328" s="2">
+        <v>17</v>
+      </c>
+      <c r="G328" s="2">
+        <v>14</v>
+      </c>
+      <c r="H328" s="2">
+        <v>7</v>
+      </c>
+      <c r="I328" s="2">
+        <v>38</v>
+      </c>
+      <c r="J328" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K328" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L328" s="2">
+        <v>-450</v>
+      </c>
+      <c r="M328" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A329" s="2">
+        <v>1121</v>
+      </c>
+      <c r="B329" s="2">
+        <v>476</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E329" s="2">
+        <v>3</v>
+      </c>
+      <c r="F329" s="2">
+        <v>7</v>
+      </c>
+      <c r="G329" s="2">
+        <v>0</v>
+      </c>
+      <c r="H329" s="2">
+        <v>0</v>
+      </c>
+      <c r="I329" s="2">
+        <v>10</v>
+      </c>
+      <c r="J329" s="2">
+        <v>45</v>
+      </c>
+      <c r="K329" s="2">
+        <v>43</v>
+      </c>
+      <c r="L329" s="2">
+        <v>375</v>
+      </c>
+      <c r="M329" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A330" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B330" s="2">
+        <v>105</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="2">
+        <v>7</v>
+      </c>
+      <c r="F330" s="2">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2">
+        <v>2</v>
+      </c>
+      <c r="H330" s="2">
+        <v>9</v>
+      </c>
+      <c r="I330" s="2">
+        <v>28</v>
+      </c>
+      <c r="J330" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K330" s="2">
+        <v>10</v>
+      </c>
+      <c r="L330" s="2">
+        <v>-450</v>
+      </c>
+      <c r="M330" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A331" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B331" s="2">
+        <v>106</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" s="2">
+        <v>7</v>
+      </c>
+      <c r="F331" s="2">
+        <v>7</v>
+      </c>
+      <c r="G331" s="2">
+        <v>0</v>
+      </c>
+      <c r="H331" s="2">
+        <v>11</v>
+      </c>
+      <c r="I331" s="2">
+        <v>25</v>
+      </c>
+      <c r="J331" s="2">
+        <v>51</v>
+      </c>
+      <c r="K331" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="L331" s="2">
+        <v>375</v>
+      </c>
+      <c r="M331" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A332" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B332" s="2">
+        <v>107</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E332" s="2">
+        <v>3</v>
+      </c>
+      <c r="F332" s="2">
+        <v>10</v>
+      </c>
+      <c r="G332" s="2">
+        <v>0</v>
+      </c>
+      <c r="H332" s="2">
+        <v>7</v>
+      </c>
+      <c r="I332" s="2">
+        <v>20</v>
+      </c>
+      <c r="J332" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K332" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="L332" s="2">
+        <v>425</v>
+      </c>
+      <c r="M332" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A333" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B333" s="2">
+        <v>108</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E333" s="2">
+        <v>0</v>
+      </c>
+      <c r="F333" s="2">
+        <v>7</v>
+      </c>
+      <c r="G333" s="2">
+        <v>14</v>
+      </c>
+      <c r="H333" s="2">
+        <v>7</v>
+      </c>
+      <c r="I333" s="2">
+        <v>28</v>
+      </c>
+      <c r="J333" s="2">
+        <v>7</v>
+      </c>
+      <c r="K333" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L333" s="2">
+        <v>-550</v>
+      </c>
+      <c r="M333" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A334" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B334" s="2">
+        <v>109</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E334" s="2">
+        <v>10</v>
+      </c>
+      <c r="F334" s="2">
+        <v>6</v>
+      </c>
+      <c r="G334" s="2">
+        <v>10</v>
+      </c>
+      <c r="H334" s="2">
+        <v>0</v>
+      </c>
+      <c r="I334" s="2">
+        <v>26</v>
+      </c>
+      <c r="J334" s="2">
+        <v>44</v>
+      </c>
+      <c r="K334" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="L334" s="2">
+        <v>125</v>
+      </c>
+      <c r="M334" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A335" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B335" s="2">
+        <v>110</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E335" s="2">
+        <v>7</v>
+      </c>
+      <c r="F335" s="2">
+        <v>9</v>
+      </c>
+      <c r="G335" s="2">
+        <v>7</v>
+      </c>
+      <c r="H335" s="2">
+        <v>10</v>
+      </c>
+      <c r="I335" s="2">
+        <v>33</v>
+      </c>
+      <c r="J335" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K335" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L335" s="2">
+        <v>-145</v>
+      </c>
+      <c r="M335" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A336" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B336" s="2">
+        <v>251</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" s="2">
+        <v>6</v>
+      </c>
+      <c r="F336" s="2">
+        <v>3</v>
+      </c>
+      <c r="G336" s="2">
+        <v>3</v>
+      </c>
+      <c r="H336" s="2">
+        <v>15</v>
+      </c>
+      <c r="I336" s="2">
+        <v>27</v>
+      </c>
+      <c r="J336" s="2">
+        <v>4</v>
+      </c>
+      <c r="K336" s="2">
+        <v>3</v>
+      </c>
+      <c r="L336" s="2">
+        <v>-165</v>
+      </c>
+      <c r="M336" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A337" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B337" s="2">
+        <v>252</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E337" s="2">
+        <v>0</v>
+      </c>
+      <c r="F337" s="2">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2">
+        <v>0</v>
+      </c>
+      <c r="H337" s="2">
+        <v>18</v>
+      </c>
+      <c r="I337" s="2">
+        <v>28</v>
+      </c>
+      <c r="J337" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="K337" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="L337" s="2">
+        <v>145</v>
+      </c>
+      <c r="M337" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A338" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B338" s="2">
+        <v>253</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E338" s="2">
+        <v>0</v>
+      </c>
+      <c r="F338" s="2">
+        <v>3</v>
+      </c>
+      <c r="G338" s="2">
+        <v>0</v>
+      </c>
+      <c r="H338" s="2">
+        <v>7</v>
+      </c>
+      <c r="I338" s="2">
+        <v>10</v>
+      </c>
+      <c r="J338" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L338" s="2">
+        <v>-110</v>
+      </c>
+      <c r="M338" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A339" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B339" s="2">
+        <v>254</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E339" s="2">
+        <v>7</v>
+      </c>
+      <c r="F339" s="2">
+        <v>3</v>
+      </c>
+      <c r="G339" s="2">
+        <v>7</v>
+      </c>
+      <c r="H339" s="2">
+        <v>6</v>
+      </c>
+      <c r="I339" s="2">
+        <v>23</v>
+      </c>
+      <c r="J339" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="K339" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="L339" s="2">
+        <v>-110</v>
+      </c>
+      <c r="M339" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A340" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B340" s="2">
+        <v>255</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" s="2">
+        <v>3</v>
+      </c>
+      <c r="F340" s="2">
+        <v>7</v>
+      </c>
+      <c r="G340" s="2">
+        <v>3</v>
+      </c>
+      <c r="H340" s="2">
+        <v>0</v>
+      </c>
+      <c r="I340" s="2">
+        <v>13</v>
+      </c>
+      <c r="J340" s="2">
+        <v>42</v>
+      </c>
+      <c r="K340" s="2">
+        <v>40</v>
+      </c>
+      <c r="L340" s="2">
+        <v>165</v>
+      </c>
+      <c r="M340" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A341" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B341" s="2">
+        <v>256</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E341" s="2">
+        <v>7</v>
+      </c>
+      <c r="F341" s="2">
+        <v>3</v>
+      </c>
+      <c r="G341" s="2">
+        <v>6</v>
+      </c>
+      <c r="H341" s="2">
+        <v>3</v>
+      </c>
+      <c r="I341" s="2">
+        <v>19</v>
+      </c>
+      <c r="J341" s="2">
+        <v>3</v>
+      </c>
+      <c r="K341" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L341" s="2">
+        <v>-185</v>
+      </c>
+      <c r="M341" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A342" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B342" s="2">
+        <v>257</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E342" s="2">
+        <v>7</v>
+      </c>
+      <c r="F342" s="2">
+        <v>3</v>
+      </c>
+      <c r="G342" s="2">
+        <v>7</v>
+      </c>
+      <c r="H342" s="2">
+        <v>0</v>
+      </c>
+      <c r="I342" s="2">
+        <v>17</v>
+      </c>
+      <c r="J342" s="2">
+        <v>3</v>
+      </c>
+      <c r="K342" s="2">
+        <v>3</v>
+      </c>
+      <c r="L342" s="2">
+        <v>-170</v>
+      </c>
+      <c r="M342" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A343" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B343" s="2">
+        <v>258</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" s="2">
+        <v>10</v>
+      </c>
+      <c r="F343" s="2">
+        <v>0</v>
+      </c>
+      <c r="G343" s="2">
+        <v>0</v>
+      </c>
+      <c r="H343" s="2">
+        <v>7</v>
+      </c>
+      <c r="I343" s="2">
+        <v>23</v>
+      </c>
+      <c r="J343" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K343" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="L343" s="2">
+        <v>150</v>
+      </c>
+      <c r="M343" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A344" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B344" s="2">
+        <v>259</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E344" s="2">
+        <v>0</v>
+      </c>
+      <c r="F344" s="2">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2">
+        <v>3</v>
+      </c>
+      <c r="H344" s="2">
+        <v>7</v>
+      </c>
+      <c r="I344" s="2">
+        <v>20</v>
+      </c>
+      <c r="J344" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K344" s="2">
+        <v>42</v>
+      </c>
+      <c r="L344" s="2">
+        <v>-110</v>
+      </c>
+      <c r="M344" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A345" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B345" s="2">
+        <v>260</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="2">
+        <v>0</v>
+      </c>
+      <c r="F345" s="2">
+        <v>10</v>
+      </c>
+      <c r="G345" s="2">
+        <v>3</v>
+      </c>
+      <c r="H345" s="2">
+        <v>3</v>
+      </c>
+      <c r="I345" s="2">
+        <v>16</v>
+      </c>
+      <c r="J345" s="2">
+        <v>43</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L345" s="2">
+        <v>-110</v>
+      </c>
+      <c r="M345" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A346" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B346" s="2">
+        <v>261</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E346" s="2">
+        <v>0</v>
+      </c>
+      <c r="F346" s="2">
+        <v>0</v>
+      </c>
+      <c r="G346" s="2">
+        <v>6</v>
+      </c>
+      <c r="H346" s="2">
+        <v>9</v>
+      </c>
+      <c r="I346" s="2">
+        <v>15</v>
+      </c>
+      <c r="J346" s="2">
+        <v>45</v>
+      </c>
+      <c r="K346" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="L346" s="2">
+        <v>600</v>
+      </c>
+      <c r="M346" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A347" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B347" s="2">
+        <v>262</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347" s="2">
+        <v>10</v>
+      </c>
+      <c r="F347" s="2">
+        <v>20</v>
+      </c>
+      <c r="G347" s="2">
+        <v>0</v>
+      </c>
+      <c r="H347" s="2">
+        <v>0</v>
+      </c>
+      <c r="I347" s="2">
+        <v>30</v>
+      </c>
+      <c r="J347" s="2">
+        <v>9</v>
+      </c>
+      <c r="K347" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="L347" s="2">
+        <v>-900</v>
+      </c>
+      <c r="M347" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A348" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B348" s="2">
+        <v>263</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>3</v>
+      </c>
+      <c r="F348" s="2">
+        <v>7</v>
+      </c>
+      <c r="G348" s="2">
+        <v>0</v>
+      </c>
+      <c r="H348" s="2">
+        <v>0</v>
+      </c>
+      <c r="I348" s="2">
+        <v>10</v>
+      </c>
+      <c r="J348" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="K348" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="L348" s="2">
+        <v>300</v>
+      </c>
+      <c r="M348" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A349" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B349" s="2">
+        <v>264</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E349" s="2">
+        <v>7</v>
+      </c>
+      <c r="F349" s="2">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2">
+        <v>14</v>
+      </c>
+      <c r="H349" s="2">
+        <v>0</v>
+      </c>
+      <c r="I349" s="2">
+        <v>31</v>
+      </c>
+      <c r="J349" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K349" s="2">
+        <v>9</v>
+      </c>
+      <c r="L349" s="2">
+        <v>-360</v>
+      </c>
+      <c r="M349" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A350" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B350" s="2">
+        <v>265</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E350" s="2">
+        <v>7</v>
+      </c>
+      <c r="F350" s="2">
+        <v>17</v>
+      </c>
+      <c r="G350" s="2">
+        <v>3</v>
+      </c>
+      <c r="H350" s="2">
+        <v>7</v>
+      </c>
+      <c r="I350" s="2">
+        <v>40</v>
+      </c>
+      <c r="J350" s="2">
+        <v>47</v>
+      </c>
+      <c r="K350" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="L350" s="2">
+        <v>180</v>
+      </c>
+      <c r="M350" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A351" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B351" s="2">
+        <v>266</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E351" s="2">
+        <v>10</v>
+      </c>
+      <c r="F351" s="2">
+        <v>10</v>
+      </c>
+      <c r="G351" s="2">
+        <v>7</v>
+      </c>
+      <c r="H351" s="2">
+        <v>7</v>
+      </c>
+      <c r="I351" s="2">
+        <v>34</v>
+      </c>
+      <c r="J351" s="2">
+        <v>3</v>
+      </c>
+      <c r="K351" s="2">
+        <v>4</v>
+      </c>
+      <c r="L351" s="2">
+        <v>-210</v>
+      </c>
+      <c r="M351" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A352" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B352" s="2">
+        <v>267</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E352" s="2">
+        <v>0</v>
+      </c>
+      <c r="F352" s="2">
+        <v>14</v>
+      </c>
+      <c r="G352" s="2">
+        <v>3</v>
+      </c>
+      <c r="H352" s="2">
+        <v>8</v>
+      </c>
+      <c r="I352" s="2">
+        <v>25</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K352" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L352" s="2">
+        <v>-145</v>
+      </c>
+      <c r="M352" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A353" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B353" s="2">
+        <v>268</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E353" s="2">
+        <v>7</v>
+      </c>
+      <c r="F353" s="2">
+        <v>10</v>
+      </c>
+      <c r="G353" s="2">
+        <v>0</v>
+      </c>
+      <c r="H353" s="2">
+        <v>7</v>
+      </c>
+      <c r="I353" s="2">
+        <v>24</v>
+      </c>
+      <c r="J353" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="K353" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="L353" s="2">
+        <v>125</v>
+      </c>
+      <c r="M353" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A354" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B354" s="2">
+        <v>269</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E354" s="2">
+        <v>0</v>
+      </c>
+      <c r="F354" s="2">
+        <v>3</v>
+      </c>
+      <c r="G354" s="2">
+        <v>0</v>
+      </c>
+      <c r="H354" s="2">
+        <v>7</v>
+      </c>
+      <c r="I354" s="2">
+        <v>10</v>
+      </c>
+      <c r="J354" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K354" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="L354" s="2">
+        <v>800</v>
+      </c>
+      <c r="M354" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A355" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B355" s="2">
+        <v>270</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E355" s="2">
+        <v>7</v>
+      </c>
+      <c r="F355" s="2">
+        <v>6</v>
+      </c>
+      <c r="G355" s="2">
+        <v>7</v>
+      </c>
+      <c r="H355" s="2">
+        <v>6</v>
+      </c>
+      <c r="I355" s="2">
+        <v>26</v>
+      </c>
+      <c r="J355" s="2">
+        <v>10</v>
+      </c>
+      <c r="K355" s="2">
+        <v>16</v>
+      </c>
+      <c r="L355" s="2">
+        <v>-1400</v>
+      </c>
+      <c r="M355" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A356" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B356" s="2">
+        <v>271</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E356" s="2">
+        <v>0</v>
+      </c>
+      <c r="F356" s="2">
+        <v>0</v>
+      </c>
+      <c r="G356" s="2">
+        <v>0</v>
+      </c>
+      <c r="H356" s="2">
+        <v>0</v>
+      </c>
+      <c r="I356" s="2">
+        <v>0</v>
+      </c>
+      <c r="J356" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K356" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="L356" s="2">
+        <v>340</v>
+      </c>
+      <c r="M356" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A357" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B357" s="2">
+        <v>272</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E357" s="2">
+        <v>3</v>
+      </c>
+      <c r="F357" s="2">
+        <v>7</v>
+      </c>
+      <c r="G357" s="2">
+        <v>3</v>
+      </c>
+      <c r="H357" s="2">
+        <v>0</v>
+      </c>
+      <c r="I357" s="2">
+        <v>13</v>
+      </c>
+      <c r="J357" s="2">
+        <v>8</v>
+      </c>
+      <c r="K357" s="2">
+        <v>10</v>
+      </c>
+      <c r="L357" s="2">
+        <v>-410</v>
+      </c>
+      <c r="M357" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A358" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B358" s="2">
+        <v>273</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E358" s="2">
+        <v>14</v>
+      </c>
+      <c r="F358" s="2">
+        <v>6</v>
+      </c>
+      <c r="G358" s="2">
+        <v>3</v>
+      </c>
+      <c r="H358" s="2">
+        <v>10</v>
+      </c>
+      <c r="I358" s="2">
+        <v>33</v>
+      </c>
+      <c r="J358" s="2">
+        <v>45</v>
+      </c>
+      <c r="K358" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="L358" s="2">
+        <v>235</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A359" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B359" s="2">
+        <v>274</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E359" s="2">
+        <v>13</v>
+      </c>
+      <c r="F359" s="2">
+        <v>14</v>
+      </c>
+      <c r="G359" s="2">
+        <v>7</v>
+      </c>
+      <c r="H359" s="2">
+        <v>6</v>
+      </c>
+      <c r="I359" s="2">
+        <v>40</v>
+      </c>
+      <c r="J359" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K359" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L359" s="2">
+        <v>-275</v>
+      </c>
+      <c r="M359" s="2">
+        <v>24</v>
+      </c>
+    </row>
     <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Data/Odds/NFL/NFL_odds_2022-23.xlsx
+++ b/Data/Odds/NFL/NFL_odds_2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A14F97-BC2A-46DA-B04A-941F727B0904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893EE8D3-7DAF-46EF-A4A2-D084991023EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{BC61BBA6-C598-4BD9-BDBF-FB5B8445D10B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -185,37 +185,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>NY Giants</t>
-  </si>
-  <si>
-    <t>New England</t>
-  </si>
-  <si>
-    <t>Tampa Bay</t>
-  </si>
-  <si>
-    <t>NY Jets</t>
-  </si>
-  <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <t>LA Chargers</t>
-  </si>
-  <si>
-    <t>LA Rams</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>Green Bay</t>
+    <t>7ev</t>
   </si>
 </sst>
 </file>
@@ -14013,7 +13983,7 @@
         <v>48</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E328" s="2">
         <v>0</v>
@@ -14177,7 +14147,7 @@
         <v>13</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E332" s="2">
         <v>3</v>
@@ -14259,7 +14229,7 @@
         <v>13</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E334" s="2">
         <v>10</v>
@@ -14587,7 +14557,7 @@
         <v>13</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E342" s="2">
         <v>7</v>
@@ -14874,7 +14844,7 @@
         <v>15</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E349" s="2">
         <v>7</v>
@@ -14915,7 +14885,7 @@
         <v>13</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E350" s="2">
         <v>7</v>
@@ -14997,7 +14967,7 @@
         <v>13</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E352" s="2">
         <v>0</v>
@@ -15079,7 +15049,7 @@
         <v>13</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E354" s="2">
         <v>0</v>
@@ -15120,7 +15090,7 @@
         <v>15</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E355" s="2">
         <v>7</v>
@@ -15161,7 +15131,7 @@
         <v>13</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E356" s="2">
         <v>0</v>
@@ -15202,7 +15172,7 @@
         <v>15</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E357" s="2">
         <v>3</v>
@@ -15243,7 +15213,7 @@
         <v>13</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E358" s="2">
         <v>14</v>
@@ -15314,38 +15284,1236 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A360" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B360" s="2">
+        <v>275</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E360" s="2">
+        <v>3</v>
+      </c>
+      <c r="F360" s="2">
+        <v>13</v>
+      </c>
+      <c r="G360" s="2">
+        <v>0</v>
+      </c>
+      <c r="H360" s="2">
+        <v>8</v>
+      </c>
+      <c r="I360" s="2">
+        <v>24</v>
+      </c>
+      <c r="J360" s="2">
+        <v>40</v>
+      </c>
+      <c r="K360" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="L360" s="2">
+        <v>115</v>
+      </c>
+      <c r="M360" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A361" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B361" s="2">
+        <v>276</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E361" s="2">
+        <v>0</v>
+      </c>
+      <c r="F361" s="2">
+        <v>3</v>
+      </c>
+      <c r="G361" s="2">
+        <v>14</v>
+      </c>
+      <c r="H361" s="2">
+        <v>0</v>
+      </c>
+      <c r="I361" s="2">
+        <v>17</v>
+      </c>
+      <c r="J361" s="2">
+        <v>3</v>
+      </c>
+      <c r="K361" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L361" s="2">
+        <v>-135</v>
+      </c>
+      <c r="M361" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A362" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B362" s="2">
+        <v>301</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362" s="2">
+        <v>3</v>
+      </c>
+      <c r="F362" s="2">
+        <v>14</v>
+      </c>
+      <c r="G362" s="2">
+        <v>0</v>
+      </c>
+      <c r="H362" s="2">
+        <v>7</v>
+      </c>
+      <c r="I362" s="2">
+        <v>24</v>
+      </c>
+      <c r="J362" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K362" s="2">
+        <v>4</v>
+      </c>
+      <c r="L362" s="2">
+        <v>-200</v>
+      </c>
+      <c r="M362" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A363" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B363" s="2">
+        <v>302</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E363" s="2">
+        <v>7</v>
+      </c>
+      <c r="F363" s="2">
+        <v>0</v>
+      </c>
+      <c r="G363" s="2">
+        <v>0</v>
+      </c>
+      <c r="H363" s="2">
+        <v>3</v>
+      </c>
+      <c r="I363" s="2">
+        <v>10</v>
+      </c>
+      <c r="J363" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K363" s="2">
+        <v>44</v>
+      </c>
+      <c r="L363" s="2">
+        <v>175</v>
+      </c>
+      <c r="M363" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B364" s="2">
+        <v>451</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E364" s="2">
+        <v>3</v>
+      </c>
+      <c r="F364" s="2">
+        <v>3</v>
+      </c>
+      <c r="G364" s="2">
+        <v>6</v>
+      </c>
+      <c r="H364" s="2">
+        <v>10</v>
+      </c>
+      <c r="I364" s="2">
+        <v>22</v>
+      </c>
+      <c r="J364" s="2">
+        <v>42</v>
+      </c>
+      <c r="K364" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="L364" s="2">
+        <v>130</v>
+      </c>
+      <c r="M364" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B365" s="2">
+        <v>452</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E365" s="2">
+        <v>3</v>
+      </c>
+      <c r="F365" s="2">
+        <v>17</v>
+      </c>
+      <c r="G365" s="2">
+        <v>0</v>
+      </c>
+      <c r="H365" s="2">
+        <v>7</v>
+      </c>
+      <c r="I365" s="2">
+        <v>27</v>
+      </c>
+      <c r="J365" s="2">
+        <v>3</v>
+      </c>
+      <c r="K365" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L365" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M365" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A366" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B366" s="2">
+        <v>453</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E366" s="2">
+        <v>3</v>
+      </c>
+      <c r="F366" s="2">
+        <v>3</v>
+      </c>
+      <c r="G366" s="2">
+        <v>3</v>
+      </c>
+      <c r="H366" s="2">
+        <v>0</v>
+      </c>
+      <c r="I366" s="2">
+        <v>9</v>
+      </c>
+      <c r="J366" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K366" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="L366" s="2">
+        <v>330</v>
+      </c>
+      <c r="M366" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B367" s="2">
+        <v>454</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E367" s="2">
+        <v>0</v>
+      </c>
+      <c r="F367" s="2">
+        <v>3</v>
+      </c>
+      <c r="G367" s="2">
+        <v>0</v>
+      </c>
+      <c r="H367" s="2">
+        <v>7</v>
+      </c>
+      <c r="I367" s="2">
+        <v>10</v>
+      </c>
+      <c r="J367" s="2">
+        <v>6</v>
+      </c>
+      <c r="K367" s="2">
+        <v>10</v>
+      </c>
+      <c r="L367" s="2">
+        <v>-400</v>
+      </c>
+      <c r="M367" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A368" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B368" s="2">
+        <v>455</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E368" s="2">
+        <v>3</v>
+      </c>
+      <c r="F368" s="2">
+        <v>13</v>
+      </c>
+      <c r="G368" s="2">
+        <v>3</v>
+      </c>
+      <c r="H368" s="2">
+        <v>0</v>
+      </c>
+      <c r="I368" s="2">
+        <v>19</v>
+      </c>
+      <c r="J368" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L368" s="2">
+        <v>-125</v>
+      </c>
+      <c r="M368" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A369" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B369" s="2">
+        <v>456</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E369" s="2">
+        <v>0</v>
+      </c>
+      <c r="F369" s="2">
+        <v>6</v>
+      </c>
+      <c r="G369" s="2">
+        <v>7</v>
+      </c>
+      <c r="H369" s="2">
+        <v>3</v>
+      </c>
+      <c r="I369" s="2">
+        <v>16</v>
+      </c>
+      <c r="J369" s="2">
+        <v>1</v>
+      </c>
+      <c r="K369" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="L369" s="2">
+        <v>105</v>
+      </c>
+      <c r="M369" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A370" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B370" s="2">
+        <v>457</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E370" s="2">
+        <v>7</v>
+      </c>
+      <c r="F370" s="2">
+        <v>3</v>
+      </c>
+      <c r="G370" s="2">
+        <v>0</v>
+      </c>
+      <c r="H370" s="2">
+        <v>0</v>
+      </c>
+      <c r="I370" s="2">
+        <v>10</v>
+      </c>
+      <c r="J370" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K370" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L370" s="2">
+        <v>190</v>
+      </c>
+      <c r="M370" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A371" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B371" s="2">
+        <v>458</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E371" s="2">
+        <v>7</v>
+      </c>
+      <c r="F371" s="2">
+        <v>14</v>
+      </c>
+      <c r="G371" s="2">
+        <v>7</v>
+      </c>
+      <c r="H371" s="2">
+        <v>7</v>
+      </c>
+      <c r="I371" s="2">
+        <v>35</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K371" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L371" s="2">
+        <v>-220</v>
+      </c>
+      <c r="M371" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A372" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B372" s="2">
+        <v>459</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" s="2">
+        <v>3</v>
+      </c>
+      <c r="F372" s="2">
+        <v>3</v>
+      </c>
+      <c r="G372" s="2">
+        <v>8</v>
+      </c>
+      <c r="H372" s="2">
+        <v>0</v>
+      </c>
+      <c r="I372" s="2">
+        <v>14</v>
+      </c>
+      <c r="J372" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="K372" s="2">
+        <v>51</v>
+      </c>
+      <c r="L372" s="2">
+        <v>100</v>
+      </c>
+      <c r="M372" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A373" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B373" s="2">
+        <v>460</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E373" s="2">
+        <v>14</v>
+      </c>
+      <c r="F373" s="2">
+        <v>9</v>
+      </c>
+      <c r="G373" s="2">
+        <v>7</v>
+      </c>
+      <c r="H373" s="2">
+        <v>10</v>
+      </c>
+      <c r="I373" s="2">
+        <v>40</v>
+      </c>
+      <c r="J373" s="2">
+        <v>1</v>
+      </c>
+      <c r="K373" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L373" s="2">
+        <v>-120</v>
+      </c>
+      <c r="M373" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A374" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B374" s="2">
+        <v>461</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E374" s="2">
+        <v>10</v>
+      </c>
+      <c r="F374" s="2">
+        <v>3</v>
+      </c>
+      <c r="G374" s="2">
+        <v>0</v>
+      </c>
+      <c r="H374" s="2">
+        <v>7</v>
+      </c>
+      <c r="I374" s="2">
+        <v>20</v>
+      </c>
+      <c r="J374" s="2">
+        <v>1</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1</v>
+      </c>
+      <c r="L374" s="2">
+        <v>-135</v>
+      </c>
+      <c r="M374" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A375" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B375" s="2">
+        <v>462</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E375" s="2">
+        <v>0</v>
+      </c>
+      <c r="F375" s="2">
+        <v>13</v>
+      </c>
+      <c r="G375" s="2">
+        <v>7</v>
+      </c>
+      <c r="H375" s="2">
+        <v>0</v>
+      </c>
+      <c r="I375" s="2">
+        <v>20</v>
+      </c>
+      <c r="J375" s="2">
+        <v>42</v>
+      </c>
+      <c r="K375" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="L375" s="2">
+        <v>115</v>
+      </c>
+      <c r="M375" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A376" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B376" s="2">
+        <v>463</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E376" s="2">
+        <v>0</v>
+      </c>
+      <c r="F376" s="2">
+        <v>7</v>
+      </c>
+      <c r="G376" s="2">
+        <v>7</v>
+      </c>
+      <c r="H376" s="2">
+        <v>13</v>
+      </c>
+      <c r="I376" s="2">
+        <v>27</v>
+      </c>
+      <c r="J376" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K376" s="2">
+        <v>9</v>
+      </c>
+      <c r="L376" s="2">
+        <v>-350</v>
+      </c>
+      <c r="M376" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A377" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B377" s="2">
+        <v>464</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E377" s="2">
+        <v>3</v>
+      </c>
+      <c r="F377" s="2">
+        <v>2</v>
+      </c>
+      <c r="G377" s="2">
+        <v>3</v>
+      </c>
+      <c r="H377" s="2">
+        <v>6</v>
+      </c>
+      <c r="I377" s="2">
+        <v>14</v>
+      </c>
+      <c r="J377" s="2">
+        <v>44</v>
+      </c>
+      <c r="K377" s="2">
+        <v>46</v>
+      </c>
+      <c r="L377" s="2">
+        <v>290</v>
+      </c>
+      <c r="M377" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A378" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B378" s="2">
+        <v>465</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E378" s="2">
+        <v>0</v>
+      </c>
+      <c r="F378" s="2">
+        <v>10</v>
+      </c>
+      <c r="G378" s="2">
+        <v>0</v>
+      </c>
+      <c r="H378" s="2">
+        <v>18</v>
+      </c>
+      <c r="I378" s="2">
+        <v>28</v>
+      </c>
+      <c r="J378" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K378" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L378" s="2">
+        <v>-185</v>
+      </c>
+      <c r="M378" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A379" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B379" s="2">
+        <v>466</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>10</v>
+      </c>
+      <c r="F379" s="2">
+        <v>6</v>
+      </c>
+      <c r="G379" s="2">
+        <v>3</v>
+      </c>
+      <c r="H379" s="2">
+        <v>0</v>
+      </c>
+      <c r="I379" s="2">
+        <v>19</v>
+      </c>
+      <c r="J379" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="K379" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L379" s="2">
+        <v>165</v>
+      </c>
+      <c r="M379" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A380" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B380" s="2">
+        <v>467</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E380" s="2">
+        <v>7</v>
+      </c>
+      <c r="F380" s="2">
+        <v>7</v>
+      </c>
+      <c r="G380" s="2">
+        <v>3</v>
+      </c>
+      <c r="H380" s="2">
+        <v>10</v>
+      </c>
+      <c r="I380" s="2">
+        <v>27</v>
+      </c>
+      <c r="J380" s="2">
+        <v>3</v>
+      </c>
+      <c r="K380" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L380" s="2">
+        <v>-290</v>
+      </c>
+      <c r="M380" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B381" s="2">
+        <v>468</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E381" s="2">
+        <v>10</v>
+      </c>
+      <c r="F381" s="2">
+        <v>3</v>
+      </c>
+      <c r="G381" s="2">
+        <v>0</v>
+      </c>
+      <c r="H381" s="2">
+        <v>10</v>
+      </c>
+      <c r="I381" s="2">
+        <v>23</v>
+      </c>
+      <c r="J381" s="2">
+        <v>43</v>
+      </c>
+      <c r="K381" s="2">
+        <v>41</v>
+      </c>
+      <c r="L381" s="2">
+        <v>245</v>
+      </c>
+      <c r="M381" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B382" s="2">
+        <v>469</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E382" s="2">
+        <v>7</v>
+      </c>
+      <c r="F382" s="2">
+        <v>3</v>
+      </c>
+      <c r="G382" s="2">
+        <v>0</v>
+      </c>
+      <c r="H382" s="2">
+        <v>7</v>
+      </c>
+      <c r="I382" s="2">
+        <v>17</v>
+      </c>
+      <c r="J382" s="2">
+        <v>46</v>
+      </c>
+      <c r="K382" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="L382" s="2">
+        <v>190</v>
+      </c>
+      <c r="M382" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B383" s="2">
+        <v>470</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E383" s="2">
+        <v>10</v>
+      </c>
+      <c r="F383" s="2">
+        <v>7</v>
+      </c>
+      <c r="G383" s="2">
+        <v>6</v>
+      </c>
+      <c r="H383" s="2">
+        <v>10</v>
+      </c>
+      <c r="I383" s="2">
+        <v>33</v>
+      </c>
+      <c r="J383" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K383" s="2">
+        <v>5</v>
+      </c>
+      <c r="L383" s="2">
+        <v>-220</v>
+      </c>
+      <c r="M383" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B384" s="2">
+        <v>471</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E384" s="2">
+        <v>7</v>
+      </c>
+      <c r="F384" s="2">
+        <v>6</v>
+      </c>
+      <c r="G384" s="2">
+        <v>0</v>
+      </c>
+      <c r="H384" s="2">
+        <v>7</v>
+      </c>
+      <c r="I384" s="2">
+        <v>20</v>
+      </c>
+      <c r="J384" s="2">
+        <v>3</v>
+      </c>
+      <c r="K384" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="L384" s="2">
+        <v>120</v>
+      </c>
+      <c r="M384" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B385" s="2">
+        <v>472</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E385" s="2">
+        <v>0</v>
+      </c>
+      <c r="F385" s="2">
+        <v>10</v>
+      </c>
+      <c r="G385" s="2">
+        <v>14</v>
+      </c>
+      <c r="H385" s="2">
+        <v>3</v>
+      </c>
+      <c r="I385" s="2">
+        <v>27</v>
+      </c>
+      <c r="J385" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="K385" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L385" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M385" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B386" s="2">
+        <v>473</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E386" s="2">
+        <v>3</v>
+      </c>
+      <c r="F386" s="2">
+        <v>7</v>
+      </c>
+      <c r="G386" s="2">
+        <v>14</v>
+      </c>
+      <c r="H386" s="2">
+        <v>0</v>
+      </c>
+      <c r="I386" s="2">
+        <v>24</v>
+      </c>
+      <c r="J386" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K386" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L386" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M386" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B387" s="2">
+        <v>474</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E387" s="2">
+        <v>7</v>
+      </c>
+      <c r="F387" s="2">
+        <v>7</v>
+      </c>
+      <c r="G387" s="2">
+        <v>3</v>
+      </c>
+      <c r="H387" s="2">
+        <v>10</v>
+      </c>
+      <c r="I387" s="2">
+        <v>27</v>
+      </c>
+      <c r="J387" s="2">
+        <v>51</v>
+      </c>
+      <c r="K387" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="L387" s="2">
+        <v>120</v>
+      </c>
+      <c r="M387" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B388" s="2">
+        <v>475</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E388" s="2">
+        <v>10</v>
+      </c>
+      <c r="F388" s="2">
+        <v>3</v>
+      </c>
+      <c r="G388" s="2">
+        <v>6</v>
+      </c>
+      <c r="H388" s="2">
+        <v>0</v>
+      </c>
+      <c r="I388" s="2">
+        <v>19</v>
+      </c>
+      <c r="J388" s="2">
+        <v>45</v>
+      </c>
+      <c r="K388" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L388" s="2">
+        <v>400</v>
+      </c>
+      <c r="M388" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B389" s="2">
+        <v>476</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E389" s="2">
+        <v>7</v>
+      </c>
+      <c r="F389" s="2">
+        <v>14</v>
+      </c>
+      <c r="G389" s="2">
+        <v>0</v>
+      </c>
+      <c r="H389" s="2">
+        <v>33</v>
+      </c>
+      <c r="I389" s="2">
+        <v>54</v>
+      </c>
+      <c r="J389" s="2">
+        <v>9</v>
+      </c>
+      <c r="K389" s="2">
+        <v>11</v>
+      </c>
+      <c r="L389" s="2">
+        <v>-500</v>
+      </c>
+      <c r="M389" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
     <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Data/Odds/NFL/NFL_odds_2022-23.xlsx
+++ b/Data/Odds/NFL/NFL_odds_2022-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893EE8D3-7DAF-46EF-A4A2-D084991023EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7F58D-2577-415E-9000-26389B0B2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{BC61BBA6-C598-4BD9-BDBF-FB5B8445D10B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -16514,22 +16514,1072 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B390" s="2">
+        <v>477</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E390" s="2">
+        <v>0</v>
+      </c>
+      <c r="F390" s="2">
+        <v>10</v>
+      </c>
+      <c r="G390" s="2">
+        <v>3</v>
+      </c>
+      <c r="H390" s="2">
+        <v>3</v>
+      </c>
+      <c r="I390" s="2">
+        <v>16</v>
+      </c>
+      <c r="J390" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K390" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="L390" s="2">
+        <v>160</v>
+      </c>
+      <c r="M390" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B391" s="2">
+        <v>478</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E391" s="2">
+        <v>3</v>
+      </c>
+      <c r="F391" s="2">
+        <v>0</v>
+      </c>
+      <c r="G391" s="2">
+        <v>0</v>
+      </c>
+      <c r="H391" s="2">
+        <v>14</v>
+      </c>
+      <c r="I391" s="2">
+        <v>17</v>
+      </c>
+      <c r="J391" s="2">
+        <v>7</v>
+      </c>
+      <c r="K391" s="2">
+        <v>3</v>
+      </c>
+      <c r="L391" s="2">
+        <v>-180</v>
+      </c>
+      <c r="M391" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B392" s="2">
+        <v>101</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E392" s="2">
+        <v>10</v>
+      </c>
+      <c r="F392" s="2">
+        <v>3</v>
+      </c>
+      <c r="G392" s="2">
+        <v>0</v>
+      </c>
+      <c r="H392" s="2">
+        <v>3</v>
+      </c>
+      <c r="I392" s="2">
+        <v>16</v>
+      </c>
+      <c r="J392" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K392" s="2">
+        <v>7</v>
+      </c>
+      <c r="L392" s="2">
+        <v>-260</v>
+      </c>
+      <c r="M392" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B393" s="2">
+        <v>102</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E393" s="2">
+        <v>3</v>
+      </c>
+      <c r="F393" s="2">
+        <v>0</v>
+      </c>
+      <c r="G393" s="2">
+        <v>0</v>
+      </c>
+      <c r="H393" s="2">
+        <v>14</v>
+      </c>
+      <c r="I393" s="2">
+        <v>17</v>
+      </c>
+      <c r="J393" s="2">
+        <v>43</v>
+      </c>
+      <c r="K393" s="2">
+        <v>42</v>
+      </c>
+      <c r="L393" s="2">
+        <v>220</v>
+      </c>
+      <c r="M393" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B394" s="2">
+        <v>105</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E394" s="2">
+        <v>7</v>
+      </c>
+      <c r="F394" s="2">
+        <v>0</v>
+      </c>
+      <c r="G394" s="2">
+        <v>6</v>
+      </c>
+      <c r="H394" s="2">
+        <v>10</v>
+      </c>
+      <c r="I394" s="2">
+        <v>23</v>
+      </c>
+      <c r="J394" s="2">
+        <v>3</v>
+      </c>
+      <c r="K394" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="L394" s="2">
+        <v>120</v>
+      </c>
+      <c r="M394" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B395" s="2">
+        <v>106</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E395" s="2">
+        <v>7</v>
+      </c>
+      <c r="F395" s="2">
+        <v>7</v>
+      </c>
+      <c r="G395" s="2">
+        <v>7</v>
+      </c>
+      <c r="H395" s="2">
+        <v>13</v>
+      </c>
+      <c r="I395" s="2">
+        <v>34</v>
+      </c>
+      <c r="J395" s="2">
+        <v>51</v>
+      </c>
+      <c r="K395" s="2">
+        <v>1</v>
+      </c>
+      <c r="L395" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M395" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B396" s="2">
+        <v>107</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E396" s="2">
+        <v>0</v>
+      </c>
+      <c r="F396" s="2">
+        <v>0</v>
+      </c>
+      <c r="G396" s="2">
+        <v>7</v>
+      </c>
+      <c r="H396" s="2">
+        <v>5</v>
+      </c>
+      <c r="I396" s="2">
+        <v>12</v>
+      </c>
+      <c r="J396" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="K396" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="L396" s="2">
+        <v>375</v>
+      </c>
+      <c r="M396" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B397" s="2">
+        <v>108</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" s="2">
+        <v>0</v>
+      </c>
+      <c r="F397" s="2">
+        <v>7</v>
+      </c>
+      <c r="G397" s="2">
+        <v>10</v>
+      </c>
+      <c r="H397" s="2">
+        <v>3</v>
+      </c>
+      <c r="I397" s="2">
+        <v>20</v>
+      </c>
+      <c r="J397" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K397" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L397" s="2">
+        <v>-450</v>
+      </c>
+      <c r="M397" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B398" s="2">
+        <v>109</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E398" s="2">
+        <v>10</v>
+      </c>
+      <c r="F398" s="2">
+        <v>3</v>
+      </c>
+      <c r="G398" s="2">
+        <v>0</v>
+      </c>
+      <c r="H398" s="2">
+        <v>3</v>
+      </c>
+      <c r="I398" s="2">
+        <v>16</v>
+      </c>
+      <c r="J398" s="2">
+        <v>4</v>
+      </c>
+      <c r="K398" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="L398" s="2">
+        <v>105</v>
+      </c>
+      <c r="M398" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B399" s="2">
+        <v>110</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E399" s="2">
+        <v>7</v>
+      </c>
+      <c r="F399" s="2">
+        <v>0</v>
+      </c>
+      <c r="G399" s="2">
+        <v>0</v>
+      </c>
+      <c r="H399" s="2">
+        <v>7</v>
+      </c>
+      <c r="I399" s="2">
+        <v>14</v>
+      </c>
+      <c r="J399" s="2">
+        <v>41</v>
+      </c>
+      <c r="K399" s="2">
+        <v>1</v>
+      </c>
+      <c r="L399" s="2">
+        <v>-125</v>
+      </c>
+      <c r="M399" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B400" s="2">
+        <v>111</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E400" s="2">
+        <v>7</v>
+      </c>
+      <c r="F400" s="2">
+        <v>17</v>
+      </c>
+      <c r="G400" s="2">
+        <v>10</v>
+      </c>
+      <c r="H400" s="2">
+        <v>14</v>
+      </c>
+      <c r="I400" s="2">
+        <v>48</v>
+      </c>
+      <c r="J400" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K400" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L400" s="2">
+        <v>-330</v>
+      </c>
+      <c r="M400" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B401" s="2">
+        <v>112</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E401" s="2">
+        <v>0</v>
+      </c>
+      <c r="F401" s="2">
+        <v>7</v>
+      </c>
+      <c r="G401" s="2">
+        <v>7</v>
+      </c>
+      <c r="H401" s="2">
+        <v>8</v>
+      </c>
+      <c r="I401" s="2">
+        <v>22</v>
+      </c>
+      <c r="J401" s="2">
+        <v>43</v>
+      </c>
+      <c r="K401" s="2">
+        <v>44</v>
+      </c>
+      <c r="L401" s="2">
+        <v>270</v>
+      </c>
+      <c r="M401" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B402" s="2">
+        <v>113</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E402" s="2">
+        <v>0</v>
+      </c>
+      <c r="F402" s="2">
+        <v>3</v>
+      </c>
+      <c r="G402" s="2">
+        <v>7</v>
+      </c>
+      <c r="H402" s="2">
+        <v>0</v>
+      </c>
+      <c r="I402" s="2">
+        <v>10</v>
+      </c>
+      <c r="J402" s="2">
+        <v>48</v>
+      </c>
+      <c r="K402" s="2">
+        <v>47</v>
+      </c>
+      <c r="L402" s="2">
+        <v>180</v>
+      </c>
+      <c r="M402" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B403" s="2">
+        <v>114</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E403" s="2">
+        <v>0</v>
+      </c>
+      <c r="F403" s="2">
+        <v>13</v>
+      </c>
+      <c r="G403" s="2">
+        <v>7</v>
+      </c>
+      <c r="H403" s="2">
+        <v>3</v>
+      </c>
+      <c r="I403" s="2">
+        <v>23</v>
+      </c>
+      <c r="J403" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K403" s="2">
+        <v>4</v>
+      </c>
+      <c r="L403" s="2">
+        <v>-210</v>
+      </c>
+      <c r="M403" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B404" s="2">
+        <v>115</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E404" s="2">
+        <v>7</v>
+      </c>
+      <c r="F404" s="2">
+        <v>13</v>
+      </c>
+      <c r="G404" s="2">
+        <v>13</v>
+      </c>
+      <c r="H404" s="2">
+        <v>3</v>
+      </c>
+      <c r="I404" s="2">
+        <v>36</v>
+      </c>
+      <c r="J404" s="2">
+        <v>43</v>
+      </c>
+      <c r="K404" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="L404" s="2">
+        <v>160</v>
+      </c>
+      <c r="M404" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B405" s="2">
+        <v>116</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E405" s="2">
+        <v>14</v>
+      </c>
+      <c r="F405" s="2">
+        <v>0</v>
+      </c>
+      <c r="G405" s="2">
+        <v>0</v>
+      </c>
+      <c r="H405" s="2">
+        <v>8</v>
+      </c>
+      <c r="I405" s="2">
+        <v>22</v>
+      </c>
+      <c r="J405" s="2">
+        <v>4</v>
+      </c>
+      <c r="K405" s="2">
+        <v>3</v>
+      </c>
+      <c r="L405" s="2">
+        <v>-180</v>
+      </c>
+      <c r="M405" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B406" s="2">
+        <v>117</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E406" s="2">
+        <v>10</v>
+      </c>
+      <c r="F406" s="2">
+        <v>10</v>
+      </c>
+      <c r="G406" s="2">
+        <v>3</v>
+      </c>
+      <c r="H406" s="2">
+        <v>0</v>
+      </c>
+      <c r="I406" s="2">
+        <v>23</v>
+      </c>
+      <c r="J406" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="K406" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L406" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M406" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B407" s="2">
+        <v>118</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E407" s="2">
+        <v>7</v>
+      </c>
+      <c r="F407" s="2">
+        <v>10</v>
+      </c>
+      <c r="G407" s="2">
+        <v>0</v>
+      </c>
+      <c r="H407" s="2">
+        <v>10</v>
+      </c>
+      <c r="I407" s="2">
+        <v>27</v>
+      </c>
+      <c r="J407" s="2">
+        <v>14</v>
+      </c>
+      <c r="K407" s="2">
+        <v>17</v>
+      </c>
+      <c r="L407" s="2">
+        <v>-2500</v>
+      </c>
+      <c r="M407" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B408" s="2">
+        <v>119</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E408" s="2">
+        <v>0</v>
+      </c>
+      <c r="F408" s="2">
+        <v>7</v>
+      </c>
+      <c r="G408" s="2">
+        <v>7</v>
+      </c>
+      <c r="H408" s="2">
+        <v>3</v>
+      </c>
+      <c r="I408" s="2">
+        <v>17</v>
+      </c>
+      <c r="J408" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="K408" s="2">
+        <v>3</v>
+      </c>
+      <c r="L408" s="2">
+        <v>-170</v>
+      </c>
+      <c r="M408" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B409" s="2">
+        <v>120</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E409" s="2">
+        <v>0</v>
+      </c>
+      <c r="F409" s="2">
+        <v>17</v>
+      </c>
+      <c r="G409" s="2">
+        <v>3</v>
+      </c>
+      <c r="H409" s="2">
+        <v>3</v>
+      </c>
+      <c r="I409" s="2">
+        <v>23</v>
+      </c>
+      <c r="J409" s="2">
+        <v>1</v>
+      </c>
+      <c r="K409" s="2">
+        <v>55</v>
+      </c>
+      <c r="L409" s="2">
+        <v>150</v>
+      </c>
+      <c r="M409" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B410" s="2">
+        <v>121</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E410" s="2">
+        <v>10</v>
+      </c>
+      <c r="F410" s="2">
+        <v>10</v>
+      </c>
+      <c r="G410" s="2">
+        <v>0</v>
+      </c>
+      <c r="H410" s="2">
+        <v>10</v>
+      </c>
+      <c r="I410" s="2">
+        <v>30</v>
+      </c>
+      <c r="J410" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K410" s="2">
+        <v>44</v>
+      </c>
+      <c r="L410" s="2">
+        <v>170</v>
+      </c>
+      <c r="M410" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B411" s="2">
+        <v>122</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E411" s="2">
+        <v>0</v>
+      </c>
+      <c r="F411" s="2">
+        <v>14</v>
+      </c>
+      <c r="G411" s="2">
+        <v>3</v>
+      </c>
+      <c r="H411" s="2">
+        <v>7</v>
+      </c>
+      <c r="I411" s="2">
+        <v>24</v>
+      </c>
+      <c r="J411" s="2">
+        <v>7</v>
+      </c>
+      <c r="K411" s="2">
+        <v>4</v>
+      </c>
+      <c r="L411" s="2">
+        <v>-190</v>
+      </c>
+      <c r="M411" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B412" s="2">
+        <v>123</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E412" s="2">
+        <v>0</v>
+      </c>
+      <c r="F412" s="2">
+        <v>0</v>
+      </c>
+      <c r="G412" s="2">
+        <v>7</v>
+      </c>
+      <c r="H412" s="2">
+        <v>0</v>
+      </c>
+      <c r="I412" s="2">
+        <v>7</v>
+      </c>
+      <c r="J412" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K412" s="2">
+        <v>39</v>
+      </c>
+      <c r="L412" s="2">
+        <v>165</v>
+      </c>
+      <c r="M412" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B413" s="2">
+        <v>124</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E413" s="2">
+        <v>7</v>
+      </c>
+      <c r="F413" s="2">
+        <v>21</v>
+      </c>
+      <c r="G413" s="2">
+        <v>7</v>
+      </c>
+      <c r="H413" s="2">
+        <v>0</v>
+      </c>
+      <c r="I413" s="2">
+        <v>35</v>
+      </c>
+      <c r="J413" s="2">
+        <v>5</v>
+      </c>
+      <c r="K413" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L413" s="2">
+        <v>-185</v>
+      </c>
+      <c r="M413" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B414" s="2">
+        <v>125</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E414" s="2">
+        <v>6</v>
+      </c>
+      <c r="F414" s="2">
+        <v>21</v>
+      </c>
+      <c r="G414" s="2">
+        <v>7</v>
+      </c>
+      <c r="H414" s="2">
+        <v>0</v>
+      </c>
+      <c r="I414" s="2">
+        <v>34</v>
+      </c>
+      <c r="J414" s="2">
+        <v>6</v>
+      </c>
+      <c r="K414" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L414" s="2">
+        <v>-420</v>
+      </c>
+      <c r="M414" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B415" s="2">
+        <v>126</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E415" s="2">
+        <v>0</v>
+      </c>
+      <c r="F415" s="2">
+        <v>14</v>
+      </c>
+      <c r="G415" s="2">
+        <v>7</v>
+      </c>
+      <c r="H415" s="2">
+        <v>7</v>
+      </c>
+      <c r="I415" s="2">
+        <v>28</v>
+      </c>
+      <c r="J415" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K415" s="2">
+        <v>44</v>
+      </c>
+      <c r="L415" s="2">
+        <v>350</v>
+      </c>
+      <c r="M415" s="2">
+        <v>22</v>
+      </c>
+    </row>
     <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
